--- a/customer master.xlsx
+++ b/customer master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_projects\LLmPOExtraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_projects\achieved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56929CF-B9E1-40A4-89A4-4E99FA715AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A1ED8-3B81-4620-B721-4E6A14E2413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
   <si>
     <t>Customer Number</t>
   </si>
@@ -66,6 +66,9 @@
     <t>SHIP006</t>
   </si>
   <si>
+    <t>Nexeo</t>
+  </si>
+  <si>
     <t>Vertex Electronics</t>
   </si>
   <si>
@@ -81,9 +84,15 @@
     <t>450 Commerce Blvd, Chicago, IL, USA</t>
   </si>
   <si>
+    <t>Transcare Logistics Corp RS (3P) CONTROL PLT - KTN CANADA 0047 400 LONGWOOD RD HAMILTON ON L8P 4Z3 CANADA</t>
+  </si>
+  <si>
     <t>789 Industrial Park, Austin, TX, USA</t>
   </si>
   <si>
+    <t>CUST004</t>
+  </si>
+  <si>
     <t>120 Tech Park, San Francisco, CA, USA</t>
   </si>
   <si>
@@ -121,6 +130,96 @@
   </si>
   <si>
     <t>987 Automation Rd, Denver, CO, USA</t>
+  </si>
+  <si>
+    <t>SHIP012</t>
+  </si>
+  <si>
+    <t>654 Distribution Cir, Miami, FL, USA</t>
+  </si>
+  <si>
+    <t>SHIP013</t>
+  </si>
+  <si>
+    <t>SHIP014</t>
+  </si>
+  <si>
+    <t>432 Logistics Blvd, Toronto, ON, Canada</t>
+  </si>
+  <si>
+    <t>SHIP015</t>
+  </si>
+  <si>
+    <t>321 Transport Ave, Vancouver, BC, Canada</t>
+  </si>
+  <si>
+    <t>CUST005</t>
+  </si>
+  <si>
+    <t>Berry Global</t>
+  </si>
+  <si>
+    <t>SHIP016</t>
+  </si>
+  <si>
+    <t>SHIP017</t>
+  </si>
+  <si>
+    <t>SHIP018</t>
+  </si>
+  <si>
+    <t>SHIP019</t>
+  </si>
+  <si>
+    <t>12900 S. PULASKI RD ALSIP IL 60803</t>
+  </si>
+  <si>
+    <t>CUST006</t>
+  </si>
+  <si>
+    <t>Galata Chemicals</t>
+  </si>
+  <si>
+    <t>465 HARTLEY DR RAVENSWOOD WV 26164 USA</t>
+  </si>
+  <si>
+    <t>550 Warehouse St, Nashville, TN, USA</t>
+  </si>
+  <si>
+    <t>602 Packaging Rd, Louisville, KY, USA</t>
+  </si>
+  <si>
+    <t>980 Chemical Park, New Orleans, LA, USA</t>
+  </si>
+  <si>
+    <t>375 Polymer Ave, Baton Rouge, LA, USA</t>
+  </si>
+  <si>
+    <t>711 Plastics Blvd, Dallas, TX, USA</t>
+  </si>
+  <si>
+    <t>20 ELMWOOD AVE. CRESTWOOD INDUMOUNTAINTOP PA 18707</t>
+  </si>
+  <si>
+    <t>CUST007</t>
+  </si>
+  <si>
+    <t>Thermal Fisher</t>
+  </si>
+  <si>
+    <t>101 main st, Houston ,T TX USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1600 Lexington Avenue Rochester NY 14606</t>
+  </si>
+  <si>
+    <t>102 main st, Houston ,T TX USA</t>
+  </si>
+  <si>
+    <t>103 main st, Houston ,T TX USA</t>
+  </si>
+  <si>
+    <t>Nalge Nun</t>
   </si>
 </sst>
 </file>
@@ -458,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,13 +590,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -505,13 +604,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,13 +618,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,13 +632,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,13 +646,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,13 +660,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -575,13 +674,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,13 +688,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,13 +702,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,13 +730,293 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/customer master.xlsx
+++ b/customer master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_projects\achieved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_projects\LLmPOExtraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A1ED8-3B81-4620-B721-4E6A14E2413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9ABC0D-4A37-4A3E-9DAA-AB6434F504A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Customer Number</t>
   </si>
@@ -66,9 +66,6 @@
     <t>SHIP006</t>
   </si>
   <si>
-    <t>Nexeo</t>
-  </si>
-  <si>
     <t>Vertex Electronics</t>
   </si>
   <si>
@@ -84,15 +81,9 @@
     <t>450 Commerce Blvd, Chicago, IL, USA</t>
   </si>
   <si>
-    <t>Transcare Logistics Corp RS (3P) CONTROL PLT - KTN CANADA 0047 400 LONGWOOD RD HAMILTON ON L8P 4Z3 CANADA</t>
-  </si>
-  <si>
     <t>789 Industrial Park, Austin, TX, USA</t>
   </si>
   <si>
-    <t>CUST004</t>
-  </si>
-  <si>
     <t>120 Tech Park, San Francisco, CA, USA</t>
   </si>
   <si>
@@ -130,96 +121,6 @@
   </si>
   <si>
     <t>987 Automation Rd, Denver, CO, USA</t>
-  </si>
-  <si>
-    <t>SHIP012</t>
-  </si>
-  <si>
-    <t>654 Distribution Cir, Miami, FL, USA</t>
-  </si>
-  <si>
-    <t>SHIP013</t>
-  </si>
-  <si>
-    <t>SHIP014</t>
-  </si>
-  <si>
-    <t>432 Logistics Blvd, Toronto, ON, Canada</t>
-  </si>
-  <si>
-    <t>SHIP015</t>
-  </si>
-  <si>
-    <t>321 Transport Ave, Vancouver, BC, Canada</t>
-  </si>
-  <si>
-    <t>CUST005</t>
-  </si>
-  <si>
-    <t>Berry Global</t>
-  </si>
-  <si>
-    <t>SHIP016</t>
-  </si>
-  <si>
-    <t>SHIP017</t>
-  </si>
-  <si>
-    <t>SHIP018</t>
-  </si>
-  <si>
-    <t>SHIP019</t>
-  </si>
-  <si>
-    <t>12900 S. PULASKI RD ALSIP IL 60803</t>
-  </si>
-  <si>
-    <t>CUST006</t>
-  </si>
-  <si>
-    <t>Galata Chemicals</t>
-  </si>
-  <si>
-    <t>465 HARTLEY DR RAVENSWOOD WV 26164 USA</t>
-  </si>
-  <si>
-    <t>550 Warehouse St, Nashville, TN, USA</t>
-  </si>
-  <si>
-    <t>602 Packaging Rd, Louisville, KY, USA</t>
-  </si>
-  <si>
-    <t>980 Chemical Park, New Orleans, LA, USA</t>
-  </si>
-  <si>
-    <t>375 Polymer Ave, Baton Rouge, LA, USA</t>
-  </si>
-  <si>
-    <t>711 Plastics Blvd, Dallas, TX, USA</t>
-  </si>
-  <si>
-    <t>20 ELMWOOD AVE. CRESTWOOD INDUMOUNTAINTOP PA 18707</t>
-  </si>
-  <si>
-    <t>CUST007</t>
-  </si>
-  <si>
-    <t>Thermal Fisher</t>
-  </si>
-  <si>
-    <t>101 main st, Houston ,T TX USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1600 Lexington Avenue Rochester NY 14606</t>
-  </si>
-  <si>
-    <t>102 main st, Houston ,T TX USA</t>
-  </si>
-  <si>
-    <t>103 main st, Houston ,T TX USA</t>
-  </si>
-  <si>
-    <t>Nalge Nun</t>
   </si>
 </sst>
 </file>
@@ -560,7 +461,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,13 +491,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,13 +519,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,13 +533,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,13 +561,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,13 +575,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,13 +589,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -702,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,13 +617,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,294 +631,132 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" t="s">
-        <v>61</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/customer master.xlsx
+++ b/customer master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_projects\LLmPOExtraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9ABC0D-4A37-4A3E-9DAA-AB6434F504A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F793641-6672-45EE-834C-9842F6F702FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Customer Number</t>
   </si>
@@ -121,6 +121,42 @@
   </si>
   <si>
     <t>987 Automation Rd, Denver, CO, USA</t>
+  </si>
+  <si>
+    <t>MAGA1</t>
+  </si>
+  <si>
+    <t>MAGA Manufacturing</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>101 Washington ST, Washionton DC. US</t>
+  </si>
+  <si>
+    <t>MAGA2</t>
+  </si>
+  <si>
+    <t>Doge Enterprises</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>101 Main ST, Houston TX</t>
+  </si>
+  <si>
+    <t>100 Freedom St, Houston, TX, USA</t>
+  </si>
+  <si>
+    <t>99 Meme St, Shiba City, TX, USA</t>
   </si>
 </sst>
 </file>
@@ -461,7 +497,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,28 +677,60 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
